--- a/data/survival/Westcott/D_survival_06252025.xlsx
+++ b/data/survival/Westcott/D_survival_06252025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceleuchtenberger/Library/Mobile Documents/com~apple~CloudDocs/Documents/project-gigas-conditioning-GL/data/survival/Westcott/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA068661-2D82-C54D-B1E3-C5697C6B0810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DE272A-E466-9F48-887B-9C28912CA8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="1480" windowWidth="28060" windowHeight="17040" xr2:uid="{05BFE67F-2973-3145-973B-13A560625EC9}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L344" sqref="L344"/>
+      <selection pane="bottomLeft" activeCell="F332" sqref="F332:F353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12307,7 +12307,7 @@
         <v>37</v>
       </c>
       <c r="F332" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G332" t="s">
         <v>12</v>
@@ -12342,7 +12342,7 @@
         <v>37</v>
       </c>
       <c r="F333" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G333" t="s">
         <v>12</v>
@@ -12377,7 +12377,7 @@
         <v>37</v>
       </c>
       <c r="F334" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G334" t="s">
         <v>12</v>
@@ -12412,7 +12412,7 @@
         <v>37</v>
       </c>
       <c r="F335" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G335" t="s">
         <v>12</v>
@@ -12447,7 +12447,7 @@
         <v>37</v>
       </c>
       <c r="F336" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G336" t="s">
         <v>12</v>
@@ -12482,7 +12482,7 @@
         <v>37</v>
       </c>
       <c r="F337" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G337" t="s">
         <v>12</v>
@@ -12517,7 +12517,7 @@
         <v>37</v>
       </c>
       <c r="F338" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G338" t="s">
         <v>12</v>
@@ -12552,7 +12552,7 @@
         <v>37</v>
       </c>
       <c r="F339" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G339" t="s">
         <v>12</v>
@@ -12587,7 +12587,7 @@
         <v>37</v>
       </c>
       <c r="F340" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G340" t="s">
         <v>12</v>
@@ -12622,7 +12622,7 @@
         <v>37</v>
       </c>
       <c r="F341" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G341" t="s">
         <v>12</v>
@@ -12657,7 +12657,7 @@
         <v>37</v>
       </c>
       <c r="F342" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G342" t="s">
         <v>12</v>
@@ -12692,7 +12692,7 @@
         <v>37</v>
       </c>
       <c r="F343" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G343" t="s">
         <v>12</v>
@@ -12727,7 +12727,7 @@
         <v>37</v>
       </c>
       <c r="F344" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G344" t="s">
         <v>12</v>
@@ -12762,7 +12762,7 @@
         <v>37</v>
       </c>
       <c r="F345" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G345" t="s">
         <v>12</v>
@@ -12797,7 +12797,7 @@
         <v>37</v>
       </c>
       <c r="F346" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G346" t="s">
         <v>12</v>
@@ -12832,7 +12832,7 @@
         <v>37</v>
       </c>
       <c r="F347" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G347" t="s">
         <v>12</v>
@@ -12867,7 +12867,7 @@
         <v>37</v>
       </c>
       <c r="F348" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G348" t="s">
         <v>12</v>
@@ -12902,7 +12902,7 @@
         <v>37</v>
       </c>
       <c r="F349" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G349" t="s">
         <v>12</v>
@@ -12937,7 +12937,7 @@
         <v>37</v>
       </c>
       <c r="F350" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G350" t="s">
         <v>12</v>
@@ -12972,7 +12972,7 @@
         <v>37</v>
       </c>
       <c r="F351" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G351" t="s">
         <v>12</v>
@@ -13007,7 +13007,7 @@
         <v>37</v>
       </c>
       <c r="F352" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G352" t="s">
         <v>12</v>
@@ -13042,7 +13042,7 @@
         <v>37</v>
       </c>
       <c r="F353" s="1">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="G353" t="s">
         <v>12</v>
